--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\census_privacy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354460DD-6D8A-4BD8-8B22-3D182D87344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67FAD74-BF44-4D65-AB6D-5D2815C44515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggregate levels" sheetId="1" r:id="rId1"/>
+    <sheet name="extents-continuous" sheetId="2" r:id="rId2"/>
+    <sheet name="extents-random" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
     <t>Franklin</t>
   </si>
@@ -59,21 +61,36 @@
   <si>
     <t>Guernsey</t>
   </si>
+  <si>
+    <t>NHGIS</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>Aggregation level</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -102,10 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,6 +419,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -507,9 +528,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.115491452991453</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.23167155425219901</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.18181818181818099</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" s="2"/>
@@ -522,119 +555,1160 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>2.3809523809523801E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>0.10204081632653</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2.6178010471204102E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.135135135135135</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5.8823529411764698E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
+        <v>2.6178010471204102E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.135135135135135</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5.8823529411764698E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
         <v>2.15827338129496E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>0.28571428571428498</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>1.18425761493522E-4</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>2.1638846146137401E-3</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>3.2615351873219499E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.6226260491167899E-3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2.6430142165441199E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3.7395477000408101E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
+        <v>1.6226260491167899E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.6430142165441199E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3.7395477000408101E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
         <v>1.5682215782356599E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>0.23142010016685399</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>0.270967472951685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5.70107858243451E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.34482758620689602</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D5C52-490D-4228-A03A-0A44F243A24C}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="9.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9.5238095238095205E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.2051282051282E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7.4719800747198001E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6.9767441860465101E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6.4958828911253402E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6.1163785090165401E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5.9516351334419203E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5.8758417120191801E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5.8056003518545597E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5.8978409689310098E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5.7896369841762302E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5.7895702145870198E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.0322580645161199E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7.3333333333333306E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.7526555386949905E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6.58342792281498E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6.6421512296023902E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6.5160191920755298E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6.3768780823488899E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>6.29421367676401E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6.4130699829309898E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>6.2628885664095302E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6.2467112681350002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.7037037037037E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8.4309133489461299E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8.0677290836653301E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7.7616424636955395E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7.68265914079648E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>7.2696172760316397E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6.8550329105795393E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6.4865553714795396E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6.7092651757188496E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>6.6074105804240696E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>6.5689582454660403E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.1066210059058598E-4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.5902923836708098E-4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.5108229623484498E-4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.81398548426007E-4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.63224719056578E-4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.6633060243307001E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.59887050609597E-4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3.6906695108301999E-4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3.6704462009872E-4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3.6372738419787799E-4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3.5801277168568801E-4</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3.56728449454307E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.40049428765109E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.5534999283001198E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.06740477748627E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.5184109392353297E-3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.5307373993767799E-3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.64603260339903E-3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4.5986396406570299E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4.7051136862980604E-3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4.6888970348994896E-3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4.6700631157140897E-3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4.5953879775975596E-3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4.5780812323468903E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.10365210485697E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.8938335519278E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6.6254873173896806E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5.6935698944827702E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.4399305400030497E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5.2735153231142397E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5.0980116867062497E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5.0652670077148201E-2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>4.96002304829775E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4.9348328836185798E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4.8293687384614301E-2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4.8100399184210503E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.18032786885245899</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.16194331983805599</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.137994480220791</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.13467132053519401</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.124618204031765</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.119820109219402</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.118275418275418</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.117458866544789</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.116387741795261</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.115491452991453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.7027027027027001E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.3809523809523801E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.3809523809523801E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.8985507246376802E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5806451612903201E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.6178010471204102E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.8018018018018001E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.15827338129496E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.7623958799672798E-4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.9289054087146001E-4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.23975223180169E-4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.12779502401815E-4</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.0813100295601697E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.74335695828831E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.7738922899430401E-3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.6187476132181E-3</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4.1147387889524503E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.9365274588582901E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.7444737472524698E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.5682215782356599E-2</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8.8235294117646995E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6.2937062937062901E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5.9047619047619002E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5.70107858243451E-2</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84976664-1F09-417B-9B19-CB0F33E1EF02}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="9.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.6872037914691899E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.3773296669721901E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.3484602917341903E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.4992319508448503E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.7275731244645599E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5.8317105667725702E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5.8592041976388197E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5.8108418074776298E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5.7719763410156999E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5.7791095890410898E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5.7895702145870198E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.3142437591776804E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.3367079115110594E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.0417702635504701E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.2089664228099702E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6.4254616423960298E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6.4150943396226401E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6.4018841665774498E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6.2956717256885897E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>6.2270756918972901E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6.2335513948417097E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>6.2467112681350002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.9296375266524504E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.5961199294532605E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.9148936170212699E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.7205444491705596E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.6455138374757597E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6.6206275334033907E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6.6167782591571397E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6.6052048080289402E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6.5597975110736104E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>6.5689582454660403E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.5324757585654301E-4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.5684353532902202E-4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.5077772456492198E-4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.52484026249399E-4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.5538353596989501E-4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.5807859940837901E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.57388664524978E-4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3.5902347173904597E-4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3.5566964855061E-4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3.5671328753119101E-4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3.56728449454307E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.5962657723535799E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.5927812999411897E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.5249505595499496E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.5435328950321902E-3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.56270987865748E-3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.5899665403943404E-3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4.5828880986892497E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4.6013296041339099E-3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4.5613928365055402E-3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4.5775328026652802E-3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4.5780812323468903E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.7688205447410599E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.9160037025310903E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.8273881596618898E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4.7664535308064603E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4.7798005166553199E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4.8026293996958201E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4.79238064535671E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4.8178908135711497E-2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>4.8003323371124999E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4.8092292068787297E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4.8100399184210503E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.121775025799793</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.116535433070866</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.114642857142857</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.115895800106326</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.116935483870967</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.119047619047619</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.11736163760424501</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.116793181515514</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.11637315564017101</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.115446285408872</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.115491452991453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.3809523809523801E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.3809523809523801E-2</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\census_privacy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67FAD74-BF44-4D65-AB6D-5D2815C44515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA59A0-0569-4C46-8A40-479DE6281DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggregate levels" sheetId="1" r:id="rId1"/>
     <sheet name="extents-continuous" sheetId="2" r:id="rId2"/>
     <sheet name="extents-random" sheetId="3" r:id="rId3"/>
+    <sheet name="plb" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -78,19 +79,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF212121"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -119,11 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D5C52-490D-4228-A03A-0A44F243A24C}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1246,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84976664-1F09-417B-9B19-CB0F33E1EF02}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1627,6 +1621,27 @@
       <c r="F13">
         <v>4</v>
       </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1635,80 +1650,303 @@
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
         <v>2.3809523809523801E-2</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="2">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.7094017094016999E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1.4388489208633001E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2.39520958083832E-2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.59067357512953E-2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2.3923444976076499E-2</v>
+      </c>
+      <c r="M14" s="2">
         <v>2.3809523809523801E-2</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.5641025641025599E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.6363636363636299E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.77777777777777E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.1505376344085999E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.8867924528301799E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.5748031496062902E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.64900662251655E-2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2.8571428571428501E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2.6315789473684199E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2.6178010471204102E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3.5714285714285698E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.77777777777777E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.04081632653061E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.3333333333333299E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.0869565217391301E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.7857142857142801E-2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2.1739130434782601E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2.15827338129496E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="2">
+        <v>1.16354432857807E-4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.17015421637947E-4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.093032157888E-4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.07760738666412E-4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.07364206602703E-4</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.06659028064474E-4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.08232918660904E-4</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.12223157564573E-4</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.1194749624229901E-4</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.12388352779662E-4</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.12779502401815E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C18" s="2">
+        <v>1.6945216496411599E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.66272779294918E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.51813860875236E-3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.52522268114498E-3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.5379629213115201E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1.5323135079609799E-3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.56152446662434E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1.6178780634781499E-3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.61459507153912E-3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.6120324580216399E-3</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1.6187476132181E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="2">
+        <v>1.9536674092491501E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.9330533740714299E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.6687959132665499E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.6043492802801301E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.6128208048062701E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.5784474838786498E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.5423458160795E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1.5889592128217701E-2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.57237896452069E-2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.56025734932354E-2</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.5682215782356599E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="C20" s="2">
+        <v>0.12962962962962901</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8.5470085470085402E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8.0645161290322495E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>7.8358208955223801E-2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>7.4534161490683204E-2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>6.6157760814249303E-2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>6.6225165562913899E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>6.2135922330097001E-2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>5.8319039451114899E-2</v>
+      </c>
+      <c r="L20" s="2">
+        <v>5.7187017001545597E-2</v>
+      </c>
+      <c r="M20" s="2">
+        <v>5.70107858243451E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490DA0DC-162E-4F8A-9FBF-C1C8ACF9B2DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\census_privacy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DBAB79-187D-4898-B65E-1A823417C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D6C844-81B2-4FCC-B9EE-D8937D2896DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#uniques" sheetId="6" r:id="rId1"/>
@@ -109,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -151,11 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5729E71B-2F30-4C2B-AF4C-76B04E2A6D41}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,13 +621,13 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>947</v>
+        <v>156</v>
       </c>
       <c r="P4">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="Q4">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
         <v>19</v>
@@ -682,13 +689,13 @@
         <v>6</v>
       </c>
       <c r="O5">
-        <v>831</v>
+        <v>161</v>
       </c>
       <c r="P5">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s">
         <v>6</v>
@@ -744,13 +751,13 @@
         <v>7</v>
       </c>
       <c r="O6">
-        <v>623</v>
+        <v>131</v>
       </c>
       <c r="P6">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T6" t="s">
         <v>7</v>
@@ -1016,13 +1023,13 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>16357</v>
+        <v>3962</v>
       </c>
       <c r="P10">
-        <v>1076</v>
+        <v>1010</v>
       </c>
       <c r="Q10">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="S10" t="s">
         <v>21</v>
@@ -1084,13 +1091,13 @@
         <v>6</v>
       </c>
       <c r="O11">
-        <v>13303</v>
+        <v>3239</v>
       </c>
       <c r="P11">
-        <v>662</v>
+        <v>575</v>
       </c>
       <c r="Q11">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="T11" t="s">
         <v>6</v>
@@ -1146,13 +1153,13 @@
         <v>7</v>
       </c>
       <c r="O12">
-        <v>9484</v>
+        <v>2234</v>
       </c>
       <c r="P12">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T12" t="s">
         <v>7</v>
@@ -1886,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2048,13 +2055,13 @@
         <v>1</v>
       </c>
       <c r="O4" s="2">
-        <v>5.7895702145870198E-2</v>
+        <v>3.93740535083291E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>0.12453531598513</v>
+        <v>0.117821782178217</v>
       </c>
       <c r="Q4" s="2">
-        <v>9.0163934426229497E-2</v>
+        <v>0.107865168539325</v>
       </c>
       <c r="S4" t="s">
         <v>2</v>
@@ -2117,13 +2124,13 @@
         <v>6</v>
       </c>
       <c r="O5" s="2">
-        <v>6.2467112681350002E-2</v>
+        <v>4.9706699598641498E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>0.14803625377643501</v>
+        <v>0.109565217391304</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.104529616724738</v>
+        <v>0.13537117903930099</v>
       </c>
       <c r="T5" t="s">
         <v>6</v>
@@ -2180,13 +2187,13 @@
         <v>7</v>
       </c>
       <c r="O6" s="2">
-        <v>6.5689582454660403E-2</v>
+        <v>5.8639212175470003E-2</v>
       </c>
       <c r="P6" s="2">
-        <v>0.13142857142857101</v>
+        <v>0.11034482758620601</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.15384615384615299</v>
+        <v>0.25</v>
       </c>
       <c r="T6" t="s">
         <v>7</v>
@@ -2251,15 +2258,9 @@
       <c r="N7" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="2">
-        <v>3.7466461624375901E-4</v>
-      </c>
-      <c r="P7" s="2">
-        <v>2.1752480413006099E-3</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>3.0157726169422199E-3</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
       <c r="S7" t="s">
         <v>9</v>
       </c>
@@ -2320,15 +2321,9 @@
       <c r="N8" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="2">
-        <v>4.5924265956415796E-3</v>
-      </c>
-      <c r="P8" s="2">
-        <v>2.4107878076101499E-2</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>3.3217814851044698E-2</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
       <c r="T8" t="s">
         <v>6</v>
       </c>
@@ -2383,15 +2378,9 @@
       <c r="N9" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="2">
-        <v>4.8100399184210503E-2</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.19986342407377899</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0.243272052895005</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
       <c r="T9" t="s">
         <v>7</v>
       </c>
@@ -3012,8 +3001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D702D47-6D24-47CF-969D-CEEE1D705472}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3174,13 +3163,13 @@
         <v>1</v>
       </c>
       <c r="O4" s="2">
-        <v>5.7835593013313702E-2</v>
+        <v>9.5272993770611908E-3</v>
       </c>
       <c r="P4" s="2">
-        <v>3.6602021305654098E-2</v>
+        <v>3.2504780114722701E-2</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.7076923076922998E-2</v>
+        <v>2.95384615384615E-2</v>
       </c>
       <c r="S4" t="s">
         <v>2</v>
@@ -3243,13 +3232,13 @@
         <v>6</v>
       </c>
       <c r="O5" s="2">
-        <v>6.3624531046627297E-2</v>
+        <v>1.2326774366434401E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>4.0697674418604599E-2</v>
+        <v>2.6162790697674399E-2</v>
       </c>
       <c r="Q5" s="2">
-        <v>2.8901734104046201E-2</v>
+        <v>2.9865125240847699E-2</v>
       </c>
       <c r="T5" t="s">
         <v>6</v>
@@ -3306,13 +3295,13 @@
         <v>7</v>
       </c>
       <c r="O6" s="2">
-        <v>8.9318996415770596E-2</v>
+        <v>1.8781362007168401E-2</v>
       </c>
       <c r="P6" s="2">
-        <v>5.5690072639225097E-2</v>
+        <v>3.8740920096852302E-2</v>
       </c>
       <c r="Q6" s="2">
-        <v>4.8192771084337303E-2</v>
+        <v>7.2289156626505993E-2</v>
       </c>
       <c r="T6" t="s">
         <v>7</v>
@@ -4127,7 +4116,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G6"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4247,94 +4236,179 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2">
+        <v>8.3713692847272994E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.70256174718848097</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.82534884597524805</v>
+      </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="G4" s="2">
+        <v>0.141490834809918</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.84298800854762401</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.91224108119552505</v>
+      </c>
       <c r="K4" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="L4" s="4">
+        <v>0.8198290688498</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.93640716565820104</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.96635967792099997</v>
+      </c>
       <c r="P4" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="Q4" s="2">
+        <v>0.227238610408349</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.96643612816270397</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.98315726738208298</v>
+      </c>
       <c r="U4" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="V4" s="2">
+        <v>0.23816694311178299</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.98688806228781401</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.99378044624860096</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2">
+        <v>8.9442039706810805E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.74069015097052404</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.86363803848260701</v>
+      </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="2">
+        <v>0.14933133902371401</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.87362072882812503</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.93552946338899701</v>
+      </c>
       <c r="K5" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="4">
+        <v>0.97530716337003498</v>
+      </c>
       <c r="P5" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="Q5" s="2">
+        <v>0.23653904975391599</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.97394007987615205</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.987595983977127</v>
+      </c>
       <c r="U5" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
+      <c r="V5" s="2">
+        <v>0.24685591010014701</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.98960102591089305</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.99519264906601101</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.11963058450940101</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.81121381984167096</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.90775634599458799</v>
+      </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="2">
+        <v>0.185371325957297</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.91003775560984201</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.95676418296427901</v>
+      </c>
       <c r="K6" t="s">
         <v>7</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="4">
+        <v>0.98541138006564999</v>
+      </c>
       <c r="P6" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="Q6" s="2">
+        <v>0.25217905107091598</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.983381929787564</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.99312396393145996</v>
+      </c>
       <c r="U6" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+      <c r="V6" s="2">
+        <v>0.256387171064071</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.99372630501965598</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.99761447115511204</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -4451,100 +4525,191 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2">
+        <v>3.9327686954238002E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.77557933463445194</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.89553597087843595</v>
+      </c>
       <c r="F11" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="2">
+        <v>6.3101058400042903E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.89182083273579005</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.93795602565985903</v>
+      </c>
       <c r="K11" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="L11" s="2">
+        <v>0.117385473282981</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.95171869605957404</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.97214331987840696</v>
+      </c>
       <c r="P11" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0.14509338695910001</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.96890547263681503</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.98132572344047198</v>
+      </c>
       <c r="U11" t="s">
         <v>1</v>
       </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="V11" s="2">
+        <v>0.16534157832744401</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.98759479684596396</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0.99325090029968</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2">
+        <v>4.0489023268042497E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.79914986475120997</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.90681538943361595</v>
+      </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="2">
+        <v>6.54623285366214E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.90621839025095097</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.95340457563118497</v>
+      </c>
       <c r="K12" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="L12" s="2">
+        <v>0.120247968975571</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.96246156897748603</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.98018563458507402</v>
+      </c>
       <c r="P12" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="Q12" s="2">
+        <v>0.14866629901605</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.97884894244712195</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.98779446481490696</v>
+      </c>
       <c r="U12" t="s">
         <v>6</v>
       </c>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
+      <c r="V12" s="2">
+        <v>0.170200183328897</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0.98964329705135601</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0.99480820605877296</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="2">
+        <v>5.7419975418158499E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.87835208125682196</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.92583761162071998</v>
+      </c>
       <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="G13" s="2">
+        <v>8.6971448974827295E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.934734783671474</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.96812214044161504</v>
+      </c>
       <c r="K13" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="L13" s="2">
+        <v>0.15117226132992001</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.97682259796698201</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.98854357711730201</v>
+      </c>
       <c r="P13" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0.1717940366565</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.98614840280043103</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.99289958706818404</v>
+      </c>
       <c r="U13" t="s">
         <v>7</v>
       </c>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
+      <c r="V13" s="2">
+        <v>0.181943075590598</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.99420508944318398</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0.99747634069400604</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4552,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D90C929-9E3E-457B-8958-30D4BFDCDF7C}">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/data_all.xlsx
+++ b/data/data_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\census_privacy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D6C844-81B2-4FCC-B9EE-D8937D2896DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15669556-7F94-490C-B92C-AF08EA866503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#uniques" sheetId="6" r:id="rId1"/>
@@ -109,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,12 +123,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF212121"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -157,12 +151,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1894,7 +1887,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2183,7 +2176,7 @@
       <c r="K6" s="2">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="2">
@@ -2255,12 +2248,18 @@
       <c r="M7" t="s">
         <v>9</v>
       </c>
-      <c r="N7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3.55995315246555E-4</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2.0518211458240699E-3</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2.8477042368081902E-3</v>
+      </c>
       <c r="S7" t="s">
         <v>9</v>
       </c>
@@ -2318,12 +2317,18 @@
       <c r="K8" s="2">
         <v>3.08811192208336E-2</v>
       </c>
-      <c r="N8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="2">
+        <v>4.5438668288122199E-3</v>
+      </c>
+      <c r="P8" s="2">
+        <v>2.2169137379299101E-2</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3.0264213406373398E-2</v>
+      </c>
       <c r="T8" t="s">
         <v>6</v>
       </c>
@@ -2375,12 +2380,18 @@
       <c r="K9" s="2">
         <v>0.129053823055438</v>
       </c>
-      <c r="N9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="2">
+        <v>4.4003731685735299E-2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>9.9419420495059002E-2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>8.2665672123030304E-2</v>
+      </c>
       <c r="T9" t="s">
         <v>7</v>
       </c>
@@ -2417,7 +2428,7 @@
       <c r="M10" t="s">
         <v>11</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="O10" s="2">
@@ -3001,7 +3012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D702D47-6D24-47CF-969D-CEEE1D705472}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="O7" sqref="O7:Q9"/>
     </sheetView>
   </sheetViews>
@@ -4116,7 +4127,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4260,14 +4271,14 @@
       <c r="K4" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="4">
-        <v>0.8198290688498</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.93640716565820104</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0.96635967792099997</v>
+      <c r="L4" s="2">
+        <v>0.20307892195444499</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.93585212818347197</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.96639025730434303</v>
       </c>
       <c r="P4" t="s">
         <v>1</v>
@@ -4322,10 +4333,14 @@
       <c r="K5" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="4">
-        <v>0.97530716337003498</v>
+      <c r="L5" s="2">
+        <v>0.21256236564581901</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.949739023615086</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.97557120450523005</v>
       </c>
       <c r="P5" t="s">
         <v>6</v>
@@ -4380,10 +4395,14 @@
       <c r="K6" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="4">
-        <v>0.98541138006564999</v>
+      <c r="L6" s="2">
+        <v>0.23824036646337801</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.96654146934480001</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.98517067418395898</v>
       </c>
       <c r="P6" t="s">
         <v>7</v>
@@ -4717,8 +4736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D90C929-9E3E-457B-8958-30D4BFDCDF7C}">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4863,13 +4882,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>4.89677602399936E-3</v>
+        <v>3.27625208791422E-2</v>
       </c>
       <c r="M4" s="2">
-        <v>4.1799761994237697E-2</v>
+        <v>4.2176679014334001E-2</v>
       </c>
       <c r="N4" s="2">
-        <v>6.8008746926000396E-2</v>
+        <v>6.7945869662418903E-2</v>
       </c>
       <c r="P4" t="s">
         <v>1</v>
@@ -4925,13 +4944,13 @@
         <v>6</v>
       </c>
       <c r="L5" s="2">
-        <v>7.3044662241192507E-2</v>
+        <v>0.51391131527817702</v>
       </c>
       <c r="M5" s="2">
-        <v>0.52289687013474995</v>
+        <v>0.52497270986560696</v>
       </c>
       <c r="N5" s="2">
-        <v>0.79510395707578796</v>
+        <v>0.78649675832774402</v>
       </c>
       <c r="P5" t="s">
         <v>6</v>
@@ -4987,13 +5006,13 @@
         <v>7</v>
       </c>
       <c r="L6" s="2">
-        <v>1.0971323428170801</v>
+        <v>8.7631773291109099</v>
       </c>
       <c r="M6" s="2">
-        <v>6.1694314704461197</v>
+        <v>6.23675310033821</v>
       </c>
       <c r="N6" s="2">
-        <v>8.4124748490945596</v>
+        <v>8.5523138832997994</v>
       </c>
       <c r="P6" t="s">
         <v>7</v>
